--- a/clang.xlsx
+++ b/clang.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="dhrystone" sheetId="2" r:id="rId1"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId2"/>
+    <sheet name="code_promo" sheetId="7" r:id="rId2"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -85,13 +86,67 @@
   </si>
   <si>
     <t>dd_usr</t>
+  </si>
+  <si>
+    <t>BR_MISP_RETIRED.ALL_BRANCHES</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.MISS_CAUSES_A_WALK</t>
+  </si>
+  <si>
+    <t>0(0)</t>
+  </si>
+  <si>
+    <t>2(1)</t>
+  </si>
+  <si>
+    <t>3(2)</t>
+  </si>
+  <si>
+    <t>4(3)</t>
+  </si>
+  <si>
+    <t>6(4)</t>
+  </si>
+  <si>
+    <t>8(5)</t>
+  </si>
+  <si>
+    <t>10(6)</t>
+  </si>
+  <si>
+    <t>11(7)</t>
+  </si>
+  <si>
+    <t>12(10)</t>
+  </si>
+  <si>
+    <t>15(13)</t>
+  </si>
+  <si>
+    <t>17(14)</t>
+  </si>
+  <si>
+    <t>18(15)</t>
+  </si>
+  <si>
+    <t>25(16)</t>
+  </si>
+  <si>
+    <t>25(dd)</t>
+  </si>
+  <si>
+    <t>Per-execution</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +185,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,12 +216,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1246,9 +1308,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="14" width="18.83203125" style="1"/>
+    <col min="15" max="15" width="18.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="18.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1412890215513.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1394586125758</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1389793823976.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1357437220494</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1372866476656</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1357199490610.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1340026656613</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1334703015642.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1331244987517</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1329376856252</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1328284266384.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1328910774695</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1322318274872.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1331954984895.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6578029997.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6590001001.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6623840872.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7575524880.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6630834432</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6834442395.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7545425827</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7556351649</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7585481748.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7578983393</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7583826062</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7567049352.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7577520840</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6592402252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>469617916</v>
+      </c>
+      <c r="C5" s="1">
+        <v>342134538.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>317113708</v>
+      </c>
+      <c r="E5" s="1">
+        <v>230760732.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210266644.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>166958770</v>
+      </c>
+      <c r="H5" s="1">
+        <v>106746348.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>80982574</v>
+      </c>
+      <c r="J5" s="1">
+        <v>69688235.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>52394159.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>38985171.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>32235469.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24313638.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>23981048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>350700489</v>
+      </c>
+      <c r="C6" s="1">
+        <v>252292387</v>
+      </c>
+      <c r="D6" s="1">
+        <v>231564291</v>
+      </c>
+      <c r="E6" s="1">
+        <v>156326115</v>
+      </c>
+      <c r="F6" s="1">
+        <v>151376560.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>116435926.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>68555934.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49526771</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41184229</v>
+      </c>
+      <c r="K6" s="1">
+        <v>28163147</v>
+      </c>
+      <c r="L6" s="1">
+        <v>19783128.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>14725185</v>
+      </c>
+      <c r="N6" s="1">
+        <v>9377347</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8210045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>282578043.1027</v>
+      </c>
+      <c r="C9" s="1">
+        <v>278917225.1516</v>
+      </c>
+      <c r="D9" s="1">
+        <v>277958764.79530001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>271487444.0988</v>
+      </c>
+      <c r="F9" s="1">
+        <v>274573295.3312</v>
+      </c>
+      <c r="G9" s="1">
+        <v>271439898.1221</v>
+      </c>
+      <c r="H9" s="1">
+        <v>268005331.32260001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>266940603.12850001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>266248997.5034</v>
+      </c>
+      <c r="K9" s="1">
+        <v>265875371.25040001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>265656853.27689999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>265782154.93900001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>264463654.9745</v>
+      </c>
+      <c r="O9" s="1">
+        <v>266390996.97909999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1315605.9994999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1318000.2002999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1324768.1745</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1515104.9761000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1326166.8864</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1366888.4791000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1509085.1654000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1511270.3297999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1517096.3496999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1515796.6786</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1516765.2124000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1513409.8705</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1515504.1680000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1318480.4504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>93923.583199999994</v>
+      </c>
+      <c r="C11" s="1">
+        <v>68426.907699999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>63422.741600000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46152.146500000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42053.3289</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33391.754000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21349.269700000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16196.514800000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>13937.6471</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10478.831899999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7797.0343000000003</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6447.0938999999998</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4862.7277000000004</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4796.2096000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>70140.097800000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50458.477400000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46312.858200000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31265.223000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30275.312099999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>23287.185300000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13711.186900000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9905.3541999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8236.8457999999991</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5632.6293999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3956.6257000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2945.0369999999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1875.4694</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1642.009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dhrystone" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -37,57 +37,6 @@
     <t>ITLB_MISSES.WALK_COMPLETED</t>
   </si>
   <si>
-    <t>ICACHE_16B.IFDATA_STALL</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_HIT</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_MISS</t>
-  </si>
-  <si>
-    <t>base_usr</t>
-  </si>
-  <si>
-    <t>base_os</t>
-  </si>
-  <si>
-    <t>MEM_UOPS_RETIRED.ALL_LOADS</t>
-  </si>
-  <si>
-    <t>MEM_UOPS_RETIRED.STLB_MISS_LOADS</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_COMPLETED_2M_4M</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_COMPLETED_1G</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_COMPLETED_4K</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_STALL</t>
-  </si>
-  <si>
-    <t>IDQ_UOPS_NOT_DELIVERED.CORE</t>
-  </si>
-  <si>
-    <t>IDQ_UOPS_NOT_DELIVERED.CORE,cmask=4</t>
-  </si>
-  <si>
-    <t>dd_usr</t>
-  </si>
-  <si>
     <t>BR_MISP_RETIRED.ALL_BRANCHES</t>
   </si>
   <si>
@@ -140,12 +89,147 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L1D_MISS,cmask=8,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L2_MISS,cmask=1,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L3_MISS,cmask=2,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L2_MISS,cmask=5,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS,cmask=6,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.MISS,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.REFERENCES,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_MISS,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_HIT,</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_HIT,</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_MISS,</t>
+  </si>
+  <si>
+    <t>ICACHE_16B.IFDATA_STALL,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_HIT,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_MISS,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL,</t>
+  </si>
+  <si>
+    <t>dhrystone, min</t>
+  </si>
+  <si>
+    <t>per run</t>
+  </si>
+  <si>
+    <t>total (5000)</t>
+  </si>
+  <si>
+    <t>total (10000)</t>
+  </si>
+  <si>
+    <t>M_L</t>
+  </si>
+  <si>
+    <t>Ms_L</t>
+  </si>
+  <si>
+    <t>1 logical core</t>
+  </si>
+  <si>
+    <t>2 logical cores</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>ITLB walk time / unhalted cycles</t>
+  </si>
+  <si>
+    <t>DTLB walk time / unhalted cycles</t>
+  </si>
+  <si>
+    <t>Ms_L/M_L</t>
+  </si>
+  <si>
+    <t>M_L(2)/M_L(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,13 +300,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -504,804 +596,1647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>229544289.986</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16907167.199099999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>216930794.64899999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>32162.888599999998</v>
+        <v>185148538.6798</v>
       </c>
       <c r="C4" s="1">
-        <v>791.47059999999999</v>
+        <v>925742693399</v>
       </c>
       <c r="D4" s="1">
-        <v>1256.8425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
+        <v>176850134.29820001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>884250671491</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/C4</f>
+        <v>0.95517974680885032</v>
+      </c>
+      <c r="G4" s="1">
+        <v>271470512.14219999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2714705121422</v>
+      </c>
+      <c r="I4" s="1">
+        <v>256898391.6164</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2568983916164</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/H4</f>
+        <v>0.94632153447971201</v>
+      </c>
+      <c r="L4" s="1">
+        <f>G4/B4</f>
+        <v>1.4662309196600636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <v>52098100.335900001</v>
+        <v>11043.993</v>
       </c>
       <c r="C5" s="1">
-        <v>4423205.8726000004</v>
+        <v>55219965</v>
       </c>
       <c r="D5" s="1">
-        <v>52092505.825900003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
+        <v>2831.2248</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14156124</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F35" si="0">E5/C5</f>
+        <v>0.25635880066204314</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17984.584900000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>179845849</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2936.3854000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29363854</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K35" si="1">J5/H5</f>
+        <v>0.16327234775376995</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L35" si="2">G5/B5</f>
+        <v>1.6284495019147514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>8281.2759000000005</v>
+        <v>143.0068</v>
       </c>
       <c r="C6" s="1">
-        <v>1189.7668000000001</v>
+        <v>715034</v>
       </c>
       <c r="D6" s="1">
-        <v>740.84969999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
+        <v>191.727</v>
+      </c>
+      <c r="E6" s="1">
+        <v>958635</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3406844989189326</v>
+      </c>
+      <c r="G6" s="1">
+        <v>173.7757</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1737757</v>
+      </c>
+      <c r="I6" s="1">
+        <v>206.40299999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2064030</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1877552500148179</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2151569016298527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11044.005999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55220030</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2879.9596000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14399798</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26077128172512765</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18015.369600000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>180153696</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2999.7995999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>29997996</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16651335313153942</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6312350427915381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>229542154.264</v>
+        <v>1149316.8872</v>
       </c>
       <c r="C8" s="1">
-        <v>16454634.3466</v>
+        <v>5746584436</v>
       </c>
       <c r="D8" s="1">
-        <v>216231456.32800001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>691395.15119999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3456975756</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60157051453789867</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1516783.4276999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15167834277</v>
+      </c>
+      <c r="I8" s="1">
+        <v>597882.58530000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5978825853</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39417795209340417</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.319726043002146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>129.0369</v>
+        <v>10584.2878</v>
       </c>
       <c r="C9" s="1">
-        <v>70.096199999999996</v>
+        <v>52921439</v>
       </c>
       <c r="D9" s="1">
-        <v>268.23390000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
+        <v>9635.5964000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48177982</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91036795125695658</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10816.105600000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>108161056</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9134.8837000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>91348837</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84456310226852815</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.021902068838302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>129.00790000000001</v>
+        <v>142.99299999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>6.0002000000000004</v>
+        <v>714965</v>
       </c>
       <c r="D10" s="1">
-        <v>129.00899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
+        <v>142.99940000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>714997</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000447574356788</v>
+      </c>
+      <c r="G10" s="1">
+        <v>142.99340000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1429934</v>
+      </c>
+      <c r="I10" s="1">
+        <v>142.99440000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1429944</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000069933297622</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0000027973397301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>32160.607800000002</v>
+        <v>10584.2878</v>
       </c>
       <c r="C11" s="1">
-        <v>903.85789999999997</v>
+        <v>52921439</v>
       </c>
       <c r="D11" s="1">
-        <v>1215.9688000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>9635.6003999999994</v>
+      </c>
+      <c r="E11" s="1">
+        <v>48178002</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9103683291756296</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10816.106</v>
+      </c>
+      <c r="H11" s="1">
+        <v>108161060</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9134.8845000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91348845</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84456314499876384</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0219021066301692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>463954.65820000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2319773291</v>
+      </c>
+      <c r="D12" s="1">
+        <v>415722.48019999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2078612401</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89604118172425329</v>
+      </c>
+      <c r="G12" s="1">
+        <v>533126.4584</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5331264584</v>
+      </c>
+      <c r="I12" s="1">
+        <v>414563.78570000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4145637857</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77760872522473179</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1490917247568224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="1">
-        <v>229542365.76199999</v>
+        <f>B5+B9</f>
+        <v>21628.2808</v>
       </c>
       <c r="C13" s="1">
-        <v>16559119.669600001</v>
+        <f>C5+C9</f>
+        <v>108141404</v>
       </c>
       <c r="D13" s="1">
-        <v>216234379.384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
+        <f>D5+D9</f>
+        <v>12466.8212</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E5+E9</f>
+        <v>62334106</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57641295280390481</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G5+G9</f>
+        <v>28800.690500000004</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H5+H9</f>
+        <v>288006905</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I5+I9</f>
+        <v>12071.269100000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J5+J9</f>
+        <v>120712691</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41913123923192047</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.331621813417551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="1">
-        <v>11921495.963</v>
+        <f>B6+B10</f>
+        <v>285.99979999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>991984.60250000004</v>
+        <f>C6+C10</f>
+        <v>1429999</v>
       </c>
       <c r="D14" s="1">
-        <v>10677496.6642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
+        <f>D6+D10</f>
+        <v>334.72640000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E6+E10</f>
+        <v>1673632</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1703728464145779</v>
+      </c>
+      <c r="G14" s="1">
+        <f>G6+G10</f>
+        <v>316.76909999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <f>H6+H10</f>
+        <v>3167691</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I6+I10</f>
+        <v>349.3974</v>
+      </c>
+      <c r="J14" s="1">
+        <f>J6+J10</f>
+        <v>3493974</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1030034179470156</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1075850402692589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="1">
-        <v>129.00790000000001</v>
+        <f>B7+B11</f>
+        <v>21628.293799999999</v>
       </c>
       <c r="C15" s="1">
-        <v>6.0011000000000001</v>
+        <f>C7+C11</f>
+        <v>108141469</v>
       </c>
       <c r="D15" s="1">
-        <v>129.00819999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
+        <f>D7+D11</f>
+        <v>12515.56</v>
+      </c>
+      <c r="E15" s="1">
+        <f>E7+E11</f>
+        <v>62577800</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57866608044690049</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G7+G11</f>
+        <v>28831.475600000002</v>
+      </c>
+      <c r="H15" s="1">
+        <f>H7+H11</f>
+        <v>288314756</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I7+I11</f>
+        <v>12134.6841</v>
+      </c>
+      <c r="J15" s="1">
+        <f>J7+J11</f>
+        <v>121346841</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42088321348353047</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3330443846661637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="1">
-        <v>58457250.945600003</v>
+        <f>B8+B12</f>
+        <v>1613271.5453999999</v>
       </c>
       <c r="C16" s="1">
-        <v>3130910.0942000002</v>
+        <f>C8+C12</f>
+        <v>8066357727</v>
       </c>
       <c r="D16" s="1">
-        <v>58838220.117399998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
+        <f>D8+D12</f>
+        <v>1107117.6313999998</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E8+E12</f>
+        <v>5535588157</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68625621926871427</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G8+G12</f>
+        <v>2049909.8860999998</v>
+      </c>
+      <c r="H16" s="1">
+        <f>H8+H12</f>
+        <v>20499098861</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I8+I12</f>
+        <v>1012446.371</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J8+J12</f>
+        <v>10124463710</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49389798930439921</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2706539651957589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30407.882799999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>152039414</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4129.6754000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20648377</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13580936979933375</v>
+      </c>
+      <c r="G17" s="1">
+        <v>47174.396000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>471743960</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3253.4672999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>32534673</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8966803517738734E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5513870633571372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>229564864.002</v>
+        <v>143.0564</v>
       </c>
       <c r="C18" s="1">
-        <v>16494131.283600001</v>
+        <v>715282</v>
       </c>
       <c r="D18" s="1">
-        <v>216240083.583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
+        <v>312.44260000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1562213</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1840518844315948</v>
+      </c>
+      <c r="G18" s="1">
+        <v>143.06620000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1430662</v>
+      </c>
+      <c r="I18" s="1">
+        <v>333.54259999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3335426</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3313864490704304</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0000685044499933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>2351440.4007999999</v>
+        <v>30407.944</v>
       </c>
       <c r="C19" s="1">
-        <v>255748.43979999999</v>
+        <v>152039720</v>
       </c>
       <c r="D19" s="1">
-        <v>2482277.5994000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
+        <v>4299.1243999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21495622</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14138162053968528</v>
+      </c>
+      <c r="G19" s="1">
+        <v>47174.475100000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>471744751</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3444.0228000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34440228</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3006065095571143E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5513865422798727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>149796513.90200001</v>
+        <v>1590884.3885999999</v>
       </c>
       <c r="C20" s="1">
-        <v>7870079.1628999999</v>
+        <v>7954421943</v>
       </c>
       <c r="D20" s="1">
-        <v>134983273.40599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
+        <v>205422.1918</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1027110959</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12912452549790518</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2561784.6211000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>25617846211</v>
+      </c>
+      <c r="I20" s="1">
+        <v>194179.39180000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1941793918</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5798484462999735E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6102896222109551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>22281021.742400002</v>
+        <v>15964074.946</v>
       </c>
       <c r="C21" s="1">
-        <v>1434894.5322</v>
+        <v>79820374730</v>
       </c>
       <c r="D21" s="1">
-        <v>18888893.157400001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
+        <v>15438520.928200001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>77192604641</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96707895574421088</v>
+      </c>
+      <c r="G21" s="1">
+        <v>25097824.535799999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>250978245358</v>
+      </c>
+      <c r="I21" s="1">
+        <v>23687123.9791</v>
+      </c>
+      <c r="J21" s="1">
+        <v>236871239791</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94379191890963499</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5721439933535626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9758870.8915999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>48794354458</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9383523.9724000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>46917619862</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9615378742715941</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14224437.103399999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>142244371034</v>
+      </c>
+      <c r="I22" s="1">
+        <v>13224966.5491</v>
+      </c>
+      <c r="J22" s="1">
+        <v>132249665491</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92973566918432915</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4575904591220445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2321558.7439999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11607793720</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2159079.1664</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10795395832</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93001272183186245</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2042296.7194000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20422967194</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1808725.5153000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>18087255153</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88563307090430021</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87970925770379738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5363945.9758000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>26819729879</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4929616.2204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>24648081102</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91902793999799326</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8532000.2291000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>85320002291</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7470156.5058000004</v>
+      </c>
+      <c r="J24" s="1">
+        <v>74701565058</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87554574603990498</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5906200896864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1899492.4058000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9497462029</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1682755.7531999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8413778766</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88589759456884054</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1801706.6091</v>
+      </c>
+      <c r="H25" s="1">
+        <v>18017066091</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1544547.3602</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15445473602</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85726907610753678</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94852003808943053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4406183.0473999996</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22030915237</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4485829.8172000004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>22429149086</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0180761373150391</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3822284.8705000002</v>
+      </c>
+      <c r="H26" s="1">
+        <v>38222848705</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3822518.8934999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>38225188935</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000612259441484</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86748208809787286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7675684.0826000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>38378420413</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7798001.6918000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>38990008459</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0159357274066663</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5364949.2896999996</v>
+      </c>
+      <c r="H27" s="1">
+        <v>53649492897</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5375232.5060999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>53752325061</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0019167406520957</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69895389543999042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2482238.6475999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12411193238</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2567457.4254000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12837287127</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0343314201003178</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1222862.2908999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12228622909</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1251708.1017</v>
+      </c>
+      <c r="J28" s="1">
+        <v>12517081017</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0235887646668458</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4926449324614085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3334781.8168000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16673909084</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3398647.9596000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>16993239798</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0191515206416968</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1405532.9299000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>14055329299</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1441637.3378999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>14416373379</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.025687344089881</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42147672834822086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="1">
-        <v>229540024.78400001</v>
+        <v>600369.2844</v>
       </c>
       <c r="C30" s="1">
-        <v>16736735.9628</v>
-      </c>
-      <c r="D30" s="2">
-        <v>216231199.43700001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1</v>
+        <v>3001846422</v>
+      </c>
+      <c r="D30" s="1">
+        <v>593003.89540000004</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2965019477</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98773190236179242</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1070771.2537</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10707712537</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1059667.7024999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10596677025</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98963032378611937</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7835210453348103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>32127.612700000001</v>
+        <v>142.99340000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>874.56619999999998</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1345.2963999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>7</v>
+        <v>714967</v>
+      </c>
+      <c r="D31" s="1">
+        <v>142.99379999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>714969</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000027973319048</v>
+      </c>
+      <c r="G31" s="2">
+        <v>142.9924</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1429924</v>
+      </c>
+      <c r="I31" s="1">
+        <v>142.9948</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1429948</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000167841088057</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99999300667023794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B32" s="1">
-        <v>52098087.494599998</v>
+        <v>15751608.871200001</v>
       </c>
       <c r="C32" s="1">
-        <v>4454350.2940999996</v>
-      </c>
-      <c r="D32" s="2">
-        <v>52097847.729000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
+        <v>78758044356</v>
+      </c>
+      <c r="D32" s="1">
+        <v>14696066.614399999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>73480333072</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93298828929596278</v>
+      </c>
+      <c r="G32" s="2">
+        <v>14576217.166300001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>145762171663</v>
+      </c>
+      <c r="I32" s="1">
+        <v>13485004.888</v>
+      </c>
+      <c r="J32" s="1">
+        <v>134850048880</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9251374848597298</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92537957776179491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B33" s="1">
-        <v>8266.2073</v>
+        <v>77272870.157199994</v>
       </c>
       <c r="C33" s="1">
-        <v>1365.0654999999999</v>
-      </c>
-      <c r="D33" s="2">
-        <v>739.46979999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>0</v>
+        <v>386364350786</v>
+      </c>
+      <c r="D33" s="1">
+        <v>77397804.841600001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>386989024208</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0016167988085061</v>
+      </c>
+      <c r="G33" s="2">
+        <v>69904488.424400002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>699044884244</v>
+      </c>
+      <c r="I33" s="1">
+        <v>70029472.515000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>700294725150</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0017879265468792</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90464464801410727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5938215.6474000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29691078237</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6200285.4488000004</v>
+      </c>
+      <c r="E34" s="1">
+        <v>31001427244</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0441327524901769</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2674932.9849999999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>26749329850</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2747528.0954</v>
+      </c>
+      <c r="J34" s="1">
+        <v>27475280954</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0271390389243713</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45046073498041417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="1">
-        <v>229534468.73199999</v>
+        <v>7801768.4233999997</v>
       </c>
       <c r="C35" s="1">
-        <v>16442984.4056</v>
+        <v>39008842117</v>
       </c>
       <c r="D35" s="2">
-        <v>216230539.273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1">
-        <v>129.0393</v>
-      </c>
-      <c r="C36" s="1">
-        <v>69.837900000000005</v>
-      </c>
-      <c r="D36" s="2">
-        <v>267.49979999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1">
-        <v>129.0076</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6.0010000000000003</v>
-      </c>
-      <c r="D37" s="2">
-        <v>129.00749999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1">
-        <v>32179.914400000001</v>
-      </c>
-      <c r="C38" s="1">
-        <v>905.63869999999997</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1216.4404999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>229542204.896</v>
-      </c>
-      <c r="C40" s="1">
-        <v>16481174.362</v>
-      </c>
-      <c r="D40" s="2">
-        <v>216220188.428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1">
-        <v>11913452.697000001</v>
-      </c>
-      <c r="C41" s="1">
-        <v>904158.52540000004</v>
-      </c>
-      <c r="D41" s="2">
-        <v>10667904.037799999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="1">
-        <v>129.00829999999999</v>
-      </c>
-      <c r="C42" s="1">
-        <v>6.0004</v>
-      </c>
-      <c r="D42" s="2">
-        <v>129.0078</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1">
-        <v>58457094.026900001</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3160656.5926999999</v>
-      </c>
-      <c r="D43" s="2">
-        <v>58836218.1765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6289975.5832000002</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31449877916</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80622433810446748</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14957082.099400001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>149570820994</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5710540.4699999997</v>
+      </c>
+      <c r="J35" s="1">
+        <v>57105404700</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3817950875745395</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9171399723348523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="9">
+        <f>B20/B4</f>
+        <v>8.5924760732317244E-3</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38:J38" si="3">C20/C4</f>
+        <v>8.5924760732317244E-3</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="3"/>
+        <v>1.161560847070789E-3</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="3"/>
+        <v>1.161560847070789E-3</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4366957239101611E-3</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4366957239101611E-3</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="3"/>
+        <v>7.5586067541422435E-4</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>7.5586067541422424E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="9">
+        <f>B16/B4</f>
+        <v>8.713390647873423E-3</v>
+      </c>
+      <c r="C39" s="9">
+        <f>C16/C4</f>
+        <v>8.713390647873423E-3</v>
+      </c>
+      <c r="D39" s="9">
+        <f>D16/D4</f>
+        <v>6.2602023786603829E-3</v>
+      </c>
+      <c r="E39" s="9">
+        <f>E16/E4</f>
+        <v>6.2602023786603837E-3</v>
+      </c>
+      <c r="G39" s="9">
+        <f>G16/G4</f>
+        <v>7.5511327912706361E-3</v>
+      </c>
+      <c r="H39" s="9">
+        <f>H16/H4</f>
+        <v>7.551132791270637E-3</v>
+      </c>
+      <c r="I39" s="9">
+        <f>I16/I4</f>
+        <v>3.9410381849014544E-3</v>
+      </c>
+      <c r="J39" s="9">
+        <f>J16/J4</f>
+        <v>3.9410381849014544E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>229562112.20899999</v>
-      </c>
-      <c r="C45" s="1">
-        <v>16480021.466800001</v>
-      </c>
-      <c r="D45" s="2">
-        <v>216232210.083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2351653.9284999999</v>
-      </c>
-      <c r="C46" s="1">
-        <v>256122.68280000001</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2448325.0199000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="1">
-        <v>149812811.73800001</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7861386.2087000003</v>
-      </c>
-      <c r="D47" s="2">
-        <v>134980617.17199999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1">
-        <v>22284496.613699999</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1433634.6621000001</v>
-      </c>
-      <c r="D48" s="2">
-        <v>18886458.8829</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>229546790.59299999</v>
-      </c>
-      <c r="C57" s="1">
-        <v>17031533.280200001</v>
-      </c>
-      <c r="D57" s="2">
-        <v>218594403.87099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1">
-        <v>32081.805</v>
-      </c>
-      <c r="C58" s="1">
-        <v>630.69799999999998</v>
-      </c>
-      <c r="D58" s="2">
-        <v>987.50160000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1">
-        <v>52098067.986000001</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4378075.8655000003</v>
-      </c>
-      <c r="D59" s="2">
-        <v>52079291.440399997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1">
-        <v>8252.1676000000007</v>
-      </c>
-      <c r="C60" s="1">
-        <v>657.87459999999999</v>
-      </c>
-      <c r="D60" s="2">
-        <v>761.21810000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>229559965.67899999</v>
-      </c>
-      <c r="C62" s="1">
-        <v>16710891.285399999</v>
-      </c>
-      <c r="D62" s="2">
-        <v>216831613.33700001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1">
-        <v>129.035</v>
-      </c>
-      <c r="C63" s="1">
-        <v>63.659199999999998</v>
-      </c>
-      <c r="D63" s="2">
-        <v>264.69369999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="1">
-        <v>129.00790000000001</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6.0007000000000001</v>
-      </c>
-      <c r="D64" s="2">
-        <v>129.00819999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1">
-        <v>32166.4126</v>
-      </c>
-      <c r="C65" s="1">
-        <v>825.27679999999998</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1123.0137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>229555704.993</v>
-      </c>
-      <c r="C67" s="1">
-        <v>16587309.062000001</v>
-      </c>
-      <c r="D67" s="2">
-        <v>216237398.68900001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1">
-        <v>11923641.814300001</v>
-      </c>
-      <c r="C68" s="1">
-        <v>901788.05969999998</v>
-      </c>
-      <c r="D68" s="2">
-        <v>10679494.633099999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="1">
-        <v>129.00720000000001</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6.0007999999999999</v>
-      </c>
-      <c r="D69" s="2">
-        <v>129.0076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="1">
-        <v>58454255.378600001</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3165210.0967999999</v>
-      </c>
-      <c r="D70" s="2">
-        <v>58837253.822800003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>229575566.50400001</v>
-      </c>
-      <c r="C72" s="1">
-        <v>16616012.922499999</v>
-      </c>
-      <c r="D72" s="2">
-        <v>216939658.96599999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2351343.6394000002</v>
-      </c>
-      <c r="C73" s="1">
-        <v>257533.02220000001</v>
-      </c>
-      <c r="D73" s="2">
-        <v>3875068.1965000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="1">
-        <v>149807503.62799999</v>
-      </c>
-      <c r="C74" s="1">
-        <v>7862988.5593999997</v>
-      </c>
-      <c r="D74" s="2">
-        <v>136662380.192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="1">
-        <v>22284765.7685</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1433933.6096999999</v>
-      </c>
-      <c r="D75" s="2">
-        <v>19233943.969000001</v>
-      </c>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1310,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1323,67 +2258,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>34</v>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1434,7 +2369,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>6578029997.5</v>
@@ -1481,7 +2416,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>469617916</v>
@@ -1575,7 +2510,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1627,7 +2562,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>1315605.9994999999</v>
@@ -1674,7 +2609,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>93923.583199999994</v>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -293,8 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,11 +320,15 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,7 +607,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J35"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +740,7 @@
         <v>1.4662309196600636</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -773,7 +781,7 @@
         <v>1.6284495019147514</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,7 +822,7 @@
         <v>1.2151569016298527</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -855,7 +863,7 @@
         <v>1.6312350427915381</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -896,7 +904,7 @@
         <v>1.319726043002146</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -937,7 +945,7 @@
         <v>1.021902068838302</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -978,7 +986,7 @@
         <v>1.0000027973397301</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>1.0219021066301692</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -187,9 +187,6 @@
     <t>total (10000)</t>
   </si>
   <si>
-    <t>M_L</t>
-  </si>
-  <si>
     <t>Ms_L</t>
   </si>
   <si>
@@ -217,10 +214,13 @@
     <t>DTLB walk time / unhalted cycles</t>
   </si>
   <si>
-    <t>Ms_L/M_L</t>
-  </si>
-  <si>
-    <t>M_L(2)/M_L(1)</t>
+    <t>M-s_L</t>
+  </si>
+  <si>
+    <t>Ms_L/M-s_L</t>
+  </si>
+  <si>
+    <t>M-s_L(2)/M-s_L(1)</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -314,11 +314,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,13 +617,13 @@
     <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -631,41 +631,41 @@
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1070,22 +1070,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
-        <f>B5+B9</f>
+        <f t="shared" ref="B13:E16" si="3">B5+B9</f>
         <v>21628.2808</v>
       </c>
       <c r="C13" s="1">
-        <f>C5+C9</f>
+        <f t="shared" si="3"/>
         <v>108141404</v>
       </c>
       <c r="D13" s="1">
-        <f>D5+D9</f>
+        <f t="shared" si="3"/>
         <v>12466.8212</v>
       </c>
       <c r="E13" s="1">
-        <f>E5+E9</f>
+        <f t="shared" si="3"/>
         <v>62334106</v>
       </c>
       <c r="F13" s="1">
@@ -1093,19 +1093,19 @@
         <v>0.57641295280390481</v>
       </c>
       <c r="G13" s="1">
-        <f>G5+G9</f>
+        <f t="shared" ref="G13:J16" si="4">G5+G9</f>
         <v>28800.690500000004</v>
       </c>
       <c r="H13" s="1">
-        <f>H5+H9</f>
+        <f t="shared" si="4"/>
         <v>288006905</v>
       </c>
       <c r="I13" s="1">
-        <f>I5+I9</f>
+        <f t="shared" si="4"/>
         <v>12071.269100000001</v>
       </c>
       <c r="J13" s="1">
-        <f>J5+J9</f>
+        <f t="shared" si="4"/>
         <v>120712691</v>
       </c>
       <c r="K13" s="1">
@@ -1119,22 +1119,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
-        <f>B6+B10</f>
+        <f t="shared" si="3"/>
         <v>285.99979999999999</v>
       </c>
       <c r="C14" s="1">
-        <f>C6+C10</f>
+        <f t="shared" si="3"/>
         <v>1429999</v>
       </c>
       <c r="D14" s="1">
-        <f>D6+D10</f>
+        <f t="shared" si="3"/>
         <v>334.72640000000001</v>
       </c>
       <c r="E14" s="1">
-        <f>E6+E10</f>
+        <f t="shared" si="3"/>
         <v>1673632</v>
       </c>
       <c r="F14" s="1">
@@ -1142,19 +1142,19 @@
         <v>1.1703728464145779</v>
       </c>
       <c r="G14" s="1">
-        <f>G6+G10</f>
+        <f t="shared" si="4"/>
         <v>316.76909999999998</v>
       </c>
       <c r="H14" s="1">
-        <f>H6+H10</f>
+        <f t="shared" si="4"/>
         <v>3167691</v>
       </c>
       <c r="I14" s="1">
-        <f>I6+I10</f>
+        <f t="shared" si="4"/>
         <v>349.3974</v>
       </c>
       <c r="J14" s="1">
-        <f>J6+J10</f>
+        <f t="shared" si="4"/>
         <v>3493974</v>
       </c>
       <c r="K14" s="1">
@@ -1168,22 +1168,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
-        <f>B7+B11</f>
+        <f t="shared" si="3"/>
         <v>21628.293799999999</v>
       </c>
       <c r="C15" s="1">
-        <f>C7+C11</f>
+        <f t="shared" si="3"/>
         <v>108141469</v>
       </c>
       <c r="D15" s="1">
-        <f>D7+D11</f>
+        <f t="shared" si="3"/>
         <v>12515.56</v>
       </c>
       <c r="E15" s="1">
-        <f>E7+E11</f>
+        <f t="shared" si="3"/>
         <v>62577800</v>
       </c>
       <c r="F15" s="1">
@@ -1191,19 +1191,19 @@
         <v>0.57866608044690049</v>
       </c>
       <c r="G15" s="1">
-        <f>G7+G11</f>
+        <f t="shared" si="4"/>
         <v>28831.475600000002</v>
       </c>
       <c r="H15" s="1">
-        <f>H7+H11</f>
+        <f t="shared" si="4"/>
         <v>288314756</v>
       </c>
       <c r="I15" s="1">
-        <f>I7+I11</f>
+        <f t="shared" si="4"/>
         <v>12134.6841</v>
       </c>
       <c r="J15" s="1">
-        <f>J7+J11</f>
+        <f t="shared" si="4"/>
         <v>121346841</v>
       </c>
       <c r="K15" s="1">
@@ -1217,22 +1217,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
-        <f>B8+B12</f>
+        <f t="shared" si="3"/>
         <v>1613271.5453999999</v>
       </c>
       <c r="C16" s="1">
-        <f>C8+C12</f>
+        <f t="shared" si="3"/>
         <v>8066357727</v>
       </c>
       <c r="D16" s="1">
-        <f>D8+D12</f>
+        <f t="shared" si="3"/>
         <v>1107117.6313999998</v>
       </c>
       <c r="E16" s="1">
-        <f>E8+E12</f>
+        <f t="shared" si="3"/>
         <v>5535588157</v>
       </c>
       <c r="F16" s="1">
@@ -1240,19 +1240,19 @@
         <v>0.68625621926871427</v>
       </c>
       <c r="G16" s="1">
-        <f>G8+G12</f>
+        <f t="shared" si="4"/>
         <v>2049909.8860999998</v>
       </c>
       <c r="H16" s="1">
-        <f>H8+H12</f>
+        <f t="shared" si="4"/>
         <v>20499098861</v>
       </c>
       <c r="I16" s="1">
-        <f>I8+I12</f>
+        <f t="shared" si="4"/>
         <v>1012446.371</v>
       </c>
       <c r="J16" s="1">
-        <f>J8+J12</f>
+        <f t="shared" si="4"/>
         <v>10124463710</v>
       </c>
       <c r="K16" s="1">
@@ -2047,76 +2047,76 @@
       <c r="A37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="8">
         <f>B20/B4</f>
         <v>8.5924760732317244E-3</v>
       </c>
-      <c r="C38" s="9">
-        <f t="shared" ref="C38:J38" si="3">C20/C4</f>
+      <c r="C38" s="8">
+        <f t="shared" ref="C38:J38" si="5">C20/C4</f>
         <v>8.5924760732317244E-3</v>
       </c>
-      <c r="D38" s="9">
-        <f t="shared" si="3"/>
+      <c r="D38" s="8">
+        <f t="shared" si="5"/>
         <v>1.161560847070789E-3</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="3"/>
+      <c r="E38" s="8">
+        <f t="shared" si="5"/>
         <v>1.161560847070789E-3</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="3"/>
+      <c r="G38" s="8">
+        <f>G20/G4</f>
         <v>9.4366957239101611E-3</v>
       </c>
-      <c r="H38" s="9">
-        <f t="shared" si="3"/>
+      <c r="H38" s="8">
+        <f t="shared" si="5"/>
         <v>9.4366957239101611E-3</v>
       </c>
-      <c r="I38" s="9">
-        <f t="shared" si="3"/>
+      <c r="I38" s="8">
+        <f t="shared" si="5"/>
         <v>7.5586067541422435E-4</v>
       </c>
-      <c r="J38" s="9">
-        <f t="shared" si="3"/>
+      <c r="J38" s="8">
+        <f t="shared" si="5"/>
         <v>7.5586067541422424E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="9">
+    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8">
         <f>B16/B4</f>
         <v>8.713390647873423E-3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f>C16/C4</f>
         <v>8.713390647873423E-3</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <f>D16/D4</f>
         <v>6.2602023786603829E-3</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f>E16/E4</f>
         <v>6.2602023786603837E-3</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <f>G16/G4</f>
         <v>7.5511327912706361E-3</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <f>H16/H4</f>
         <v>7.551132791270637E-3</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f>I16/I4</f>
         <v>3.9410381849014544E-3</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <f>J16/J4</f>
         <v>3.9410381849014544E-3</v>
       </c>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnie/Development/research/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{57070D98-D299-42DE-90C3-819FED3CFB21}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dhrystone" sheetId="2" r:id="rId1"/>
-    <sheet name="code_promo" sheetId="7" r:id="rId2"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId3"/>
+    <sheet name="data-superpg" sheetId="8" r:id="rId1"/>
+    <sheet name="dhrystone" sheetId="2" r:id="rId2"/>
+    <sheet name="code_promo" sheetId="7" r:id="rId3"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -221,16 +229,77 @@
   </si>
   <si>
     <t>M-s_L(2)/M-s_L(1)</t>
+  </si>
+  <si>
+    <t>code no superpage, data no superpage</t>
+  </si>
+  <si>
+    <t>code no superpage, data superpage</t>
+  </si>
+  <si>
+    <t>code superpage, data no superpage</t>
+  </si>
+  <si>
+    <t>code superpage, data superpage</t>
+  </si>
+  <si>
+    <t>Col C/Col B</t>
+  </si>
+  <si>
+    <t>Col D/ Col B</t>
+  </si>
+  <si>
+    <t>Col E/ Col B</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P (os + user)</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
+  </si>
+  <si>
+    <t>elapse time</t>
+  </si>
+  <si>
+    <t>5000 iterations</t>
+  </si>
+  <si>
+    <t>4 hyperthreads/2cores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +344,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +382,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -303,8 +392,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -319,8 +409,15 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -336,6 +433,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,31 +703,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384F6F9-A13C-42B9-8587-294C53F132BC}">
+  <dimension ref="A2:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="36.8125" customWidth="1"/>
+    <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>269559340.06045002</v>
+      </c>
+      <c r="C7" s="11">
+        <v>270584219.91035002</v>
+      </c>
+      <c r="D7" s="11">
+        <v>254979371.49505001</v>
+      </c>
+      <c r="E7" s="11">
+        <v>254972036.48005</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <f>C7/B7</f>
+        <v>1.0038020565329704</v>
+      </c>
+      <c r="H7" s="11">
+        <f>D7/B7</f>
+        <v>0.94591184055380761</v>
+      </c>
+      <c r="I7" s="11">
+        <f>E7/B7</f>
+        <v>0.94588462942100715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="11">
+        <v>47708.169950000003</v>
+      </c>
+      <c r="C8" s="11">
+        <v>47066.353499999997</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3474.0246000000002</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2698.9146500000002</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <f t="shared" ref="G8:G19" si="0">C8/B8</f>
+        <v>0.98654703270587296</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" ref="H8:H19" si="1">D8/B8</f>
+        <v>7.2818232257512952E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I19" si="2">E8/B8</f>
+        <v>5.6571330504367835E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2674726.7326000002</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2690581.50055</v>
+      </c>
+      <c r="D9" s="11">
+        <v>193823.9283</v>
+      </c>
+      <c r="E9" s="11">
+        <v>148097.10935000001</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0059276215984083</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>7.2464946021454354E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5369061648417608E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="11">
+        <v>14931593.6647</v>
+      </c>
+      <c r="C10" s="11">
+        <v>15033360.7807</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5605997.9632999999</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5554597.0680999998</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0068155562149128</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37544538708907021</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.37200296182929921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="11">
+        <v>269532641.56809998</v>
+      </c>
+      <c r="C11" s="11">
+        <v>270569085.08074999</v>
+      </c>
+      <c r="D11" s="11">
+        <v>254972162.96145001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>254927708.68669999</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0038453357879777</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94597879306217125</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.94581386211172525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>19342.494200000001</v>
+      </c>
+      <c r="C12" s="11">
+        <v>19324.010600000001</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3853.5345499999999</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3631.0277500000002</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99904440452152243</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.19922635158396479</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18772282997505046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1585133.47765</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1620427.36555</v>
+      </c>
+      <c r="D13" s="11">
+        <v>656908.25349999999</v>
+      </c>
+      <c r="E13" s="11">
+        <v>646197.75254999998</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.022265562110469</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41441825736586102</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.40766141253164639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10896.971149999999</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10753.867550000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>9352.0624499999994</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8825.4004999999997</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98686758017157838</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.85822586122933797</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.80989482109439193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="11">
+        <v>538604.22155000002</v>
+      </c>
+      <c r="C15" s="11">
+        <v>550671.14994999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>437690.78615</v>
+      </c>
+      <c r="E15" s="11">
+        <v>420984.0122</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0224040731899087</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.81263898171909899</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.78162033522219421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="11">
+        <v>47723.016049999998</v>
+      </c>
+      <c r="C16" s="11">
+        <v>47050.125950000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3466.6095500000001</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2695.7633000000001</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98590009274990076</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>7.2640202504552318E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="2"/>
+        <v>5.6487697616923779E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2676890.3783499999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2692992.3051</v>
+      </c>
+      <c r="D17" s="11">
+        <v>193731.09755000001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>148404.8449</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0060151610541201</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>7.2371696322287696E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5439268675422856E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="11">
+        <v>14933141.28015</v>
+      </c>
+      <c r="C18" s="11">
+        <v>15035233.9946</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5608488.4069499997</v>
+      </c>
+      <c r="E18" s="11">
+        <v>5552873.8894499997</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.006836653623957</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37557325024475119</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.3718490159087427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="11">
+        <v>434.24299999999999</v>
+      </c>
+      <c r="C19" s="11">
+        <v>435.87299999999999</v>
+      </c>
+      <c r="D19" s="11">
+        <v>400.45499999999998</v>
+      </c>
+      <c r="E19" s="11">
+        <v>400.55799999999999</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>1.00375365866577</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92219103128893265</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.92242822567088012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.1875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -645,7 +1190,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
         <v>61</v>
@@ -673,7 +1218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -699,7 +1244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -740,7 +1285,7 @@
         <v>1.4662309196600636</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -781,7 +1326,7 @@
         <v>1.6284495019147514</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -822,7 +1367,7 @@
         <v>1.2151569016298527</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -863,7 +1408,7 @@
         <v>1.6312350427915381</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -904,7 +1449,7 @@
         <v>1.319726043002146</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -945,7 +1490,7 @@
         <v>1.021902068838302</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -986,7 +1531,7 @@
         <v>1.0000027973397301</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1027,7 +1572,7 @@
         <v>1.0219021066301692</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1613,7 @@
         <v>1.1490917247568224</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1117,7 +1662,7 @@
         <v>1.331621813417551</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1166,7 +1711,7 @@
         <v>1.1075850402692589</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1215,7 +1760,7 @@
         <v>1.3330443846661637</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -1264,7 +1809,7 @@
         <v>1.2706539651957589</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1850,7 @@
         <v>1.5513870633571372</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1891,7 @@
         <v>1.0000685044499933</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1387,7 +1932,7 @@
         <v>1.5513865422798727</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1973,7 @@
         <v>1.6102896222109551</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +2014,7 @@
         <v>1.5721439933535626</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +2055,7 @@
         <v>1.4575904591220445</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1551,7 +2096,7 @@
         <v>0.87970925770379738</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +2137,7 @@
         <v>1.5906200896864</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +2178,7 @@
         <v>0.94852003808943053</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +2219,7 @@
         <v>0.86748208809787286</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1715,7 +2260,7 @@
         <v>0.69895389543999042</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +2301,7 @@
         <v>0.4926449324614085</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -1797,7 +2342,7 @@
         <v>0.42147672834822086</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1838,7 +2383,7 @@
         <v>1.7835210453348103</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +2424,7 @@
         <v>0.99999300667023794</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1920,7 +2465,7 @@
         <v>0.92537957776179491</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1961,7 +2506,7 @@
         <v>0.90464464801410727</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +2547,7 @@
         <v>0.45046073498041417</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2043,11 +2588,11 @@
         <v>1.9171399723348523</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
         <v>59</v>
       </c>
@@ -2084,7 +2629,7 @@
         <v>7.5586067541422424E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="7" t="s">
         <v>60</v>
       </c>
@@ -2121,119 +2666,119 @@
         <v>3.9410381849014544E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D77" s="2"/>
     </row>
   </sheetData>
@@ -2249,23 +2794,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="18.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="14" width="18.83203125" style="1"/>
-    <col min="15" max="15" width="18.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="18.83203125" style="1"/>
+    <col min="2" max="14" width="18.8125" style="1"/>
+    <col min="15" max="15" width="18.8125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="18.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2328,7 +2873,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2920,7 @@
         <v>1331954984895.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2422,7 +2967,7 @@
         <v>6592402252</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +3014,7 @@
         <v>23981048</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2516,12 +3061,12 @@
         <v>8210045</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +3113,7 @@
         <v>266390996.97909999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +3160,7 @@
         <v>1318480.4504</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2662,7 +3207,7 @@
         <v>4796.2096000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2714,15 +3259,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{57070D98-D299-42DE-90C3-819FED3CFB21}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{476876CB-7737-4087-8220-1227893C5F20}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>4 hyperthreads/2cores</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>no STMT</t>
+  </si>
+  <si>
+    <t>2 processes/2 cores</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +373,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -394,7 +411,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -406,15 +423,16 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -704,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384F6F9-A13C-42B9-8587-294C53F132BC}">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -717,6 +735,11 @@
     <col min="7" max="9" width="9.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>82</v>
@@ -727,423 +750,614 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>269559340.06045002</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>270584219.91035002</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>254979371.49505001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>254972036.48005</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <f>C7/B7</f>
         <v>1.0038020565329704</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f>D7/B7</f>
         <v>0.94591184055380761</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>E7/B7</f>
         <v>0.94588462942100715</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>47708.169950000003</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>47066.353499999997</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3474.0246000000002</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2698.9146500000002</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <f t="shared" ref="G8:G19" si="0">C8/B8</f>
         <v>0.98654703270587296</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" ref="H8:H19" si="1">D8/B8</f>
         <v>7.2818232257512952E-2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" ref="I8:I19" si="2">E8/B8</f>
         <v>5.6571330504367835E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2674726.7326000002</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2690581.50055</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>193823.9283</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>148097.10935000001</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>1.0059276215984083</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>7.2464946021454354E-2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
         <v>5.5369061648417608E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>14931593.6647</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>15033360.7807</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>5605997.9632999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>5554597.0680999998</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>1.0068155562149128</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.37544538708907021</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>0.37200296182929921</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>269532641.56809998</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>270569085.08074999</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>254972162.96145001</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>254927708.68669999</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>1.0038453357879777</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>0.94597879306217125</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>0.94581386211172525</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>19342.494200000001</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>19324.010600000001</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>3853.5345499999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>3631.0277500000002</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>0.99904440452152243</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0.19922635158396479</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>0.18772282997505046</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1585133.47765</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1620427.36555</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>656908.25349999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>646197.75254999998</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>1.022265562110469</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>0.41441825736586102</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="2"/>
         <v>0.40766141253164639</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10896.971149999999</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>10753.867550000001</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>9352.0624499999994</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>8825.4004999999997</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>0.98686758017157838</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0.85822586122933797</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>0.80989482109439193</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>538604.22155000002</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>550671.14994999999</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>437690.78615</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>420984.0122</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>1.0224040731899087</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>0.81263898171909899</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>0.78162033522219421</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>47723.016049999998</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>47050.125950000001</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>3466.6095500000001</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2695.7633000000001</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0.98590009274990076</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>7.2640202504552318E-2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>5.6487697616923779E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>2676890.3783499999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>2692992.3051</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>193731.09755000001</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>148404.8449</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>1.0060151610541201</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>7.2371696322287696E-2</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>5.5439268675422856E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>14933141.28015</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>15035233.9946</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5608488.4069499997</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>5552873.8894499997</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>1.006836653623957</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0.37557325024475119</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>0.3718490159087427</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>434.24299999999999</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>435.87299999999999</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>400.45499999999998</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>400.55799999999999</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>1.00375365866577</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f t="shared" si="1"/>
         <v>0.92219103128893265</v>
       </c>
-      <c r="I19" s="11">
-        <f t="shared" si="2"/>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.92242822567088012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10">
+        <v>184420794.1561</v>
+      </c>
+      <c r="C26" s="10">
+        <v>184868386.28560001</v>
+      </c>
+      <c r="D26" s="10">
+        <v>176087715.4878</v>
+      </c>
+      <c r="E26" s="10">
+        <v>176048390.85710001</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
+        <f>C26/B26</f>
+        <v>1.0024270155193082</v>
+      </c>
+      <c r="H26" s="10">
+        <f>D26/B26</f>
+        <v>0.95481486398303539</v>
+      </c>
+      <c r="I26" s="10">
+        <f>E26/B26</f>
+        <v>0.95460163081223204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1208581.8125</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1224992.8533000001</v>
+      </c>
+      <c r="D27" s="10">
+        <v>749348.17200000002</v>
+      </c>
+      <c r="E27" s="10">
+        <v>742821.42469999997</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27:G30" si="3">C27/B27</f>
+        <v>1.0135787586990517</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" ref="H27:H30" si="4">D27/B27</f>
+        <v>0.62002271112283514</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I30" si="5">E27/B27</f>
+        <v>0.61462237559528055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="10">
+        <v>461685.00760000001</v>
+      </c>
+      <c r="C28" s="10">
+        <v>462376.4534</v>
+      </c>
+      <c r="D28" s="10">
+        <v>422278.59110000002</v>
+      </c>
+      <c r="E28" s="10">
+        <v>396182.16840000002</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0014976570358962</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="4"/>
+        <v>0.91464653204822843</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.85812223026147927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1709616.3977999999</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1694467.3581999999</v>
+      </c>
+      <c r="D29" s="10">
+        <v>210361.14249999999</v>
+      </c>
+      <c r="E29" s="10">
+        <v>161322.48240000001</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99113892472048448</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="4"/>
+        <v>0.12304581470480792</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="5"/>
+        <v>9.4361801049402644E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="10">
+        <v>434.24299999999999</v>
+      </c>
+      <c r="C30" s="10">
+        <v>435.87299999999999</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400.45499999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <v>400.55799999999999</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>1.00375365866577</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="4"/>
+        <v>0.92219103128893265</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="5"/>
         <v>0.92242822567088012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1176,41 +1390,41 @@
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="6" t="s">
         <v>62</v>
       </c>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{476876CB-7737-4087-8220-1227893C5F20}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E94A4437-BD16-43E9-B227-4760EC446AB4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,10 +429,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384F6F9-A13C-42B9-8587-294C53F132BC}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -736,7 +736,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1330,29 +1330,29 @@
         <v>81</v>
       </c>
       <c r="B30" s="10">
-        <v>434.24299999999999</v>
+        <v>294.32799999999997</v>
       </c>
       <c r="C30" s="10">
-        <v>435.87299999999999</v>
+        <v>294.99799999999999</v>
       </c>
       <c r="D30" s="10">
-        <v>400.45499999999998</v>
+        <v>275.51100000000002</v>
       </c>
       <c r="E30" s="10">
-        <v>400.55799999999999</v>
+        <v>275.47899999999998</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10">
         <f t="shared" si="3"/>
-        <v>1.00375365866577</v>
+        <v>1.0022763719387895</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>0.92219103128893265</v>
+        <v>0.93606792422059759</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="5"/>
-        <v>0.92242822567088012</v>
+        <v>0.93595920197874483</v>
       </c>
     </row>
   </sheetData>
@@ -1390,41 +1390,41 @@
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="6" t="s">
         <v>62</v>
       </c>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E94A4437-BD16-43E9-B227-4760EC446AB4}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3E0E4DB-451F-40D3-B556-ECA0D800FA5C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -273,31 +273,43 @@
     <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
   </si>
   <si>
-    <t>INST_RETIRED.ANY_P (os + user)</t>
-  </si>
-  <si>
     <t>INST_RETIRED.ANY_P</t>
   </si>
   <si>
-    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
-  </si>
-  <si>
     <t>elapse time</t>
   </si>
   <si>
-    <t>5000 iterations</t>
-  </si>
-  <si>
-    <t>4 hyperthreads/2cores</t>
-  </si>
-  <si>
     <t>SMT</t>
   </si>
   <si>
-    <t>no STMT</t>
-  </si>
-  <si>
-    <t>2 processes/2 cores</t>
+    <t>no SMT</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL,usr</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P,usr</t>
+  </si>
+  <si>
+    <t>elaspe time</t>
+  </si>
+  <si>
+    <t>averaged over 5000 iterations x 4 hyperthreads/2cores</t>
+  </si>
+  <si>
+    <t>averaged over 5000 iterations x 2cores</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -433,6 +445,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -722,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384F6F9-A13C-42B9-8587-294C53F132BC}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -737,17 +750,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
@@ -807,7 +815,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B8" s="10">
         <v>47708.169950000003</v>
@@ -837,7 +845,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="10">
         <v>2674726.7326000002</v>
@@ -867,7 +875,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10">
         <v>14931593.6647</v>
@@ -897,7 +905,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10">
         <v>269532641.56809998</v>
@@ -926,8 +934,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
+      <c r="A12" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B12" s="10">
         <v>19342.494200000001</v>
@@ -956,8 +964,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="11" t="s">
-        <v>75</v>
+      <c r="A13" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="10">
         <v>1585133.47765</v>
@@ -986,8 +994,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
-        <v>76</v>
+      <c r="A14" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="10">
         <v>10896.971149999999</v>
@@ -1016,8 +1024,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="11" t="s">
-        <v>77</v>
+      <c r="A15" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B15" s="10">
         <v>538604.22155000002</v>
@@ -1046,138 +1054,65 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
-        <v>78</v>
+      <c r="A16" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B16" s="10">
-        <v>47723.016049999998</v>
+        <v>434.24299999999999</v>
       </c>
       <c r="C16" s="10">
-        <v>47050.125950000001</v>
+        <v>435.87299999999999</v>
       </c>
       <c r="D16" s="10">
-        <v>3466.6095500000001</v>
+        <v>400.45499999999998</v>
       </c>
       <c r="E16" s="10">
-        <v>2695.7633000000001</v>
+        <v>400.55799999999999</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>0.98590009274990076</v>
+        <f>C16/B16</f>
+        <v>1.00375365866577</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>7.2640202504552318E-2</v>
+        <f>D16/B16</f>
+        <v>0.92219103128893265</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>5.6487697616923779E-2</v>
+        <f>E16/B16</f>
+        <v>0.92242822567088012</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2676890.3783499999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2692992.3051</v>
-      </c>
-      <c r="D17" s="10">
-        <v>193731.09755000001</v>
-      </c>
-      <c r="E17" s="10">
-        <v>148404.8449</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>1.0060151610541201</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="1"/>
-        <v>7.2371696322287696E-2</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>5.5439268675422856E-2</v>
-      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="10">
-        <v>14933141.28015</v>
-      </c>
-      <c r="C18" s="10">
-        <v>15035233.9946</v>
-      </c>
-      <c r="D18" s="10">
-        <v>5608488.4069499997</v>
-      </c>
-      <c r="E18" s="10">
-        <v>5552873.8894499997</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>1.006836653623957</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.37557325024475119</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.3718490159087427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="10">
-        <v>434.24299999999999</v>
-      </c>
-      <c r="C19" s="10">
-        <v>435.87299999999999</v>
-      </c>
-      <c r="D19" s="10">
-        <v>400.45499999999998</v>
-      </c>
-      <c r="E19" s="10">
-        <v>400.55799999999999</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>1.00375365866577</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>0.92219103128893265</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="2"/>
-        <v>0.92242822567088012</v>
-      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
@@ -1206,153 +1141,269 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="11" t="s">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="10">
-        <v>184420794.1561</v>
+        <v>184426445.3026</v>
       </c>
       <c r="C26" s="10">
-        <v>184868386.28560001</v>
+        <v>184868270.65310001</v>
       </c>
       <c r="D26" s="10">
-        <v>176087715.4878</v>
+        <v>176104569.14449999</v>
       </c>
       <c r="E26" s="10">
-        <v>176048390.85710001</v>
+        <v>176063181.93630001</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10">
         <f>C26/B26</f>
-        <v>1.0024270155193082</v>
+        <v>1.0023956724306815</v>
       </c>
       <c r="H26" s="10">
         <f>D26/B26</f>
-        <v>0.95481486398303539</v>
+        <v>0.95487699096273426</v>
       </c>
       <c r="I26" s="10">
         <f>E26/B26</f>
-        <v>0.95460163081223204</v>
+        <v>0.9546525805852959</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="s">
-        <v>72</v>
+      <c r="A27" t="s">
+        <v>83</v>
       </c>
       <c r="B27" s="10">
-        <v>1208581.8125</v>
+        <v>1207408.2644</v>
       </c>
       <c r="C27" s="10">
-        <v>1224992.8533000001</v>
+        <v>1227187.8839</v>
       </c>
       <c r="D27" s="10">
-        <v>749348.17200000002</v>
+        <v>749044.62650000001</v>
       </c>
       <c r="E27" s="10">
-        <v>742821.42469999997</v>
+        <v>743739.47519999999</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G30" si="3">C27/B27</f>
-        <v>1.0135787586990517</v>
+        <f t="shared" ref="G27:G34" si="3">C27/B27</f>
+        <v>1.0163818818234023</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H30" si="4">D27/B27</f>
-        <v>0.62002271112283514</v>
+        <f t="shared" ref="H27:H34" si="4">D27/B27</f>
+        <v>0.62037394358255815</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" ref="I27:I30" si="5">E27/B27</f>
-        <v>0.61462237559528055</v>
+        <f t="shared" ref="I27:I34" si="5">E27/B27</f>
+        <v>0.6159801097349521</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="s">
-        <v>74</v>
+      <c r="A28" t="s">
+        <v>84</v>
       </c>
       <c r="B28" s="10">
-        <v>461685.00760000001</v>
+        <v>462922.9351</v>
       </c>
       <c r="C28" s="10">
-        <v>462376.4534</v>
+        <v>463700.40740000003</v>
       </c>
       <c r="D28" s="10">
-        <v>422278.59110000002</v>
+        <v>421897.69919999997</v>
       </c>
       <c r="E28" s="10">
-        <v>396182.16840000002</v>
+        <v>397168.39399999997</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10">
         <f t="shared" si="3"/>
-        <v>1.0014976570358962</v>
+        <v>1.0016794853766147</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="4"/>
-        <v>0.91464653204822843</v>
+        <v>0.91137782816671675</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="5"/>
-        <v>0.85812223026147927</v>
+        <v>0.85795791023878343</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="11" t="s">
-        <v>75</v>
+      <c r="A29" t="s">
+        <v>85</v>
       </c>
       <c r="B29" s="10">
-        <v>1709616.3977999999</v>
+        <v>1708458.0157000001</v>
       </c>
       <c r="C29" s="10">
-        <v>1694467.3581999999</v>
+        <v>1696476.6159999999</v>
       </c>
       <c r="D29" s="10">
-        <v>210361.14249999999</v>
+        <v>210099.008</v>
       </c>
       <c r="E29" s="10">
-        <v>161322.48240000001</v>
+        <v>161495.99600000001</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
         <f t="shared" si="3"/>
-        <v>0.99113892472048448</v>
+        <v>0.99298700957828856</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="4"/>
-        <v>0.12304581470480792</v>
+        <v>0.12297580980584819</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="5"/>
-        <v>9.4361801049402644E-2</v>
+        <v>9.4527342501788583E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="12" t="s">
-        <v>81</v>
+      <c r="A30" t="s">
+        <v>86</v>
       </c>
       <c r="B30" s="10">
-        <v>294.32799999999997</v>
+        <v>7757916.3880000003</v>
       </c>
       <c r="C30" s="10">
-        <v>294.99799999999999</v>
+        <v>7782298.6692000004</v>
       </c>
       <c r="D30" s="10">
-        <v>275.51100000000002</v>
+        <v>6100134.8282000003</v>
       </c>
       <c r="E30" s="10">
-        <v>275.47899999999998</v>
+        <v>6045863.3136</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10">
         <f t="shared" si="3"/>
-        <v>1.0022763719387895</v>
+        <v>1.0031428904335338</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>0.93606792422059759</v>
+        <v>0.78631097876173706</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="5"/>
-        <v>0.93595920197874483</v>
+        <v>0.77931534850669237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="10">
+        <v>203852047.95969999</v>
+      </c>
+      <c r="C31" s="10">
+        <v>204543344.648</v>
+      </c>
+      <c r="D31" s="10">
+        <v>192382644.28569999</v>
+      </c>
+      <c r="E31" s="10">
+        <v>192260430.53889999</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0033911687187793</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.94373662767289246</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.94313710587253174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="10">
+        <v>250759229.21380001</v>
+      </c>
+      <c r="C32" s="10">
+        <v>250771855.0749</v>
+      </c>
+      <c r="D32" s="10">
+        <v>240656935.20120001</v>
+      </c>
+      <c r="E32" s="10">
+        <v>240879764.50870001</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0000503505340146</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="4"/>
+        <v>0.95971317169751436</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96060179026680348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="10">
+        <v>223753374.2789</v>
+      </c>
+      <c r="C33" s="10">
+        <v>223753376.01210001</v>
+      </c>
+      <c r="D33" s="10">
+        <v>223753369.2705</v>
+      </c>
+      <c r="E33" s="10">
+        <v>223753229.05899999</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0000000077460285</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="4"/>
+        <v>0.999999977616427</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999935098230153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="10">
+        <v>294.29500000000002</v>
+      </c>
+      <c r="C34" s="10">
+        <v>294.97649999999999</v>
+      </c>
+      <c r="D34" s="10">
+        <v>275.56950000000001</v>
+      </c>
+      <c r="E34" s="10">
+        <v>275.35599999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0023157036307107</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="4"/>
+        <v>0.93637166788426573</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="5"/>
+        <v>0.93564620533818099</v>
       </c>
     </row>
   </sheetData>

--- a/clang.xlsx
+++ b/clang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3E0E4DB-451F-40D3-B556-ECA0D800FA5C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_F740F62D79B1ADD581DB163033E2D3777A84950E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B2FC4EFF-F826-4C6B-B3C7-B63915C76F5C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -252,33 +252,12 @@
     <t>Col E/ Col B</t>
   </si>
   <si>
-    <t>DTLB_LOAD_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
-    <t>DTLB_LOAD_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>DTLB_STORE_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
-    <t>DTLB_STORE_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_STALL</t>
-  </si>
-  <si>
     <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
   </si>
   <si>
     <t>INST_RETIRED.ANY_P</t>
   </si>
   <si>
-    <t>elapse time</t>
-  </si>
-  <si>
     <t>SMT</t>
   </si>
   <si>
@@ -310,6 +289,9 @@
   </si>
   <si>
     <t>averaged over 5000 iterations x 2cores</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P (os + usr)</t>
   </si>
 </sst>
 </file>
@@ -423,7 +405,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -445,7 +427,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -738,7 +719,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -750,12 +731,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
@@ -784,304 +765,285 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="10">
-        <v>269559340.06045002</v>
+        <v>269553674.51539999</v>
       </c>
       <c r="C7" s="10">
-        <v>270584219.91035002</v>
+        <v>270613181.92799997</v>
       </c>
       <c r="D7" s="10">
-        <v>254979371.49505001</v>
+        <v>254968323.70770001</v>
       </c>
       <c r="E7" s="10">
-        <v>254972036.48005</v>
+        <v>254986394.25944999</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
         <f>C7/B7</f>
-        <v>1.0038020565329704</v>
+        <v>1.0039305990337721</v>
       </c>
       <c r="H7" s="10">
         <f>D7/B7</f>
-        <v>0.94591184055380761</v>
+        <v>0.94589073647791544</v>
       </c>
       <c r="I7" s="10">
         <f>E7/B7</f>
-        <v>0.94588462942100715</v>
+        <v>0.94595777526632174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="10">
-        <v>47708.169950000003</v>
+        <v>1587749.1723499999</v>
       </c>
       <c r="C8" s="10">
-        <v>47066.353499999997</v>
+        <v>1623758.652</v>
       </c>
       <c r="D8" s="10">
-        <v>3474.0246000000002</v>
+        <v>657411.55735000002</v>
       </c>
       <c r="E8" s="10">
-        <v>2698.9146500000002</v>
+        <v>647626.05870000005</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10">
-        <f t="shared" ref="G8:G19" si="0">C8/B8</f>
-        <v>0.98654703270587296</v>
+        <f t="shared" ref="G8:G15" si="0">C8/B8</f>
+        <v>1.0226795770245642</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ref="H8:H19" si="1">D8/B8</f>
-        <v>7.2818232257512952E-2</v>
+        <f t="shared" ref="H8:H15" si="1">D8/B8</f>
+        <v>0.41405252718663149</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" ref="I8:I19" si="2">E8/B8</f>
-        <v>5.6571330504367835E-2</v>
+        <f t="shared" ref="I8:I15" si="2">E8/B8</f>
+        <v>0.40788940090673137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
-        <v>75</v>
+      <c r="A9" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="10">
-        <v>2674726.7326000002</v>
+        <v>539639.92255000002</v>
       </c>
       <c r="C9" s="10">
-        <v>2690581.50055</v>
+        <v>549522.79244999995</v>
       </c>
       <c r="D9" s="10">
-        <v>193823.9283</v>
+        <v>435870.00605000003</v>
       </c>
       <c r="E9" s="10">
-        <v>148097.10935000001</v>
+        <v>418838.23664999998</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>1.0059276215984083</v>
+        <v>1.0183138227677813</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>7.2464946021454354E-2</v>
+        <v>0.8077052638921739</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>5.5369061648417608E-2</v>
+        <v>0.77614390475566186</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
-        <v>76</v>
+      <c r="A10" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="10">
-        <v>14931593.6647</v>
+        <v>2683057.7054499998</v>
       </c>
       <c r="C10" s="10">
-        <v>15033360.7807</v>
+        <v>2691092.7038500002</v>
       </c>
       <c r="D10" s="10">
-        <v>5605997.9632999999</v>
+        <v>193876.04384999999</v>
       </c>
       <c r="E10" s="10">
-        <v>5554597.0680999998</v>
+        <v>148342.50774999999</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>1.0068155562149128</v>
+        <v>1.0029947169543463</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>0.37544538708907021</v>
+        <v>7.2259364178484303E-2</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>0.37200296182929921</v>
+        <v>5.5288601303161364E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="11" t="s">
-        <v>77</v>
+      <c r="A11" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="10">
-        <v>269532641.56809998</v>
+        <v>14934563.44795</v>
       </c>
       <c r="C11" s="10">
-        <v>270569085.08074999</v>
+        <v>15033884.34285</v>
       </c>
       <c r="D11" s="10">
-        <v>254972162.96145001</v>
+        <v>5605968.9563999996</v>
       </c>
       <c r="E11" s="10">
-        <v>254927708.68669999</v>
+        <v>5555615.6648000004</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>1.0038453357879777</v>
+        <v>1.0066504049647085</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>0.94597879306217125</v>
+        <v>0.37536878636847637</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>0.94581386211172525</v>
+        <v>0.37199719189398833</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="10">
-        <v>19342.494200000001</v>
+        <v>298525048.25484997</v>
       </c>
       <c r="C12" s="10">
-        <v>19324.010600000001</v>
+        <v>299636984.59315002</v>
       </c>
       <c r="D12" s="10">
-        <v>3853.5345499999999</v>
+        <v>278691753.02929997</v>
       </c>
       <c r="E12" s="10">
-        <v>3631.0277500000002</v>
+        <v>278672485.94489998</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>0.99904440452152243</v>
+        <v>1.0037247673011036</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="1"/>
-        <v>0.19922635158396479</v>
+        <v>0.93356237494477057</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>0.18772282997505046</v>
+        <v>0.93349783401424358</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="15" t="s">
-        <v>72</v>
+      <c r="A13" t="s">
+        <v>84</v>
       </c>
       <c r="B13" s="10">
-        <v>1585133.47765</v>
+        <v>249681812.76295</v>
       </c>
       <c r="C13" s="10">
-        <v>1620427.36555</v>
+        <v>249649361.74445</v>
       </c>
       <c r="D13" s="10">
-        <v>656908.25349999999</v>
+        <v>239455846.833</v>
       </c>
       <c r="E13" s="10">
-        <v>646197.75254999998</v>
+        <v>239755297.35315001</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>1.022265562110469</v>
+        <v>0.99987003050746504</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>0.41441825736586102</v>
+        <v>0.95904400958647873</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>0.40766141253164639</v>
+        <v>0.96024333811119711</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="15" t="s">
-        <v>73</v>
+      <c r="A14" t="s">
+        <v>80</v>
       </c>
       <c r="B14" s="10">
-        <v>10896.971149999999</v>
+        <v>223635326.6234</v>
       </c>
       <c r="C14" s="10">
-        <v>10753.867550000001</v>
+        <v>223635313.88734999</v>
       </c>
       <c r="D14" s="10">
-        <v>9352.0624499999994</v>
+        <v>223635302.04449999</v>
       </c>
       <c r="E14" s="10">
-        <v>8825.4004999999997</v>
+        <v>223635180.03619999</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0.98686758017157838</v>
+        <v>0.99999994304991879</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="1"/>
-        <v>0.85822586122933797</v>
+        <v>0.99999989009383994</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="2"/>
-        <v>0.80989482109439193</v>
+        <v>0.99999934452574091</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="15" t="s">
-        <v>74</v>
+      <c r="A15" t="s">
+        <v>81</v>
       </c>
       <c r="B15" s="10">
-        <v>538604.22155000002</v>
+        <v>434.46350000000001</v>
       </c>
       <c r="C15" s="10">
-        <v>550671.14994999999</v>
+        <v>436.22449999999998</v>
       </c>
       <c r="D15" s="10">
-        <v>437690.78615</v>
+        <v>400.39800000000002</v>
       </c>
       <c r="E15" s="10">
-        <v>420984.0122</v>
+        <v>400.3895</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>1.0224040731899087</v>
+        <v>1.0040532749011135</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>0.81263898171909899</v>
+        <v>0.92159180230330051</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="2"/>
-        <v>0.78162033522219421</v>
+        <v>0.92157223794403897</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="10">
-        <v>434.24299999999999</v>
-      </c>
-      <c r="C16" s="10">
-        <v>435.87299999999999</v>
-      </c>
-      <c r="D16" s="10">
-        <v>400.45499999999998</v>
-      </c>
-      <c r="E16" s="10">
-        <v>400.55799999999999</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <f>C16/B16</f>
-        <v>1.00375365866577</v>
-      </c>
-      <c r="H16" s="10">
-        <f>D16/B16</f>
-        <v>0.92219103128893265</v>
-      </c>
-      <c r="I16" s="10">
-        <f>E16/B16</f>
-        <v>0.92242822567088012</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
@@ -1107,12 +1069,12 @@
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
@@ -1142,7 +1104,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B26" s="10">
         <v>184426445.3026</v>
@@ -1172,7 +1134,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B27" s="10">
         <v>1207408.2644</v>
@@ -1202,7 +1164,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B28" s="10">
         <v>462922.9351</v>
@@ -1232,7 +1194,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B29" s="10">
         <v>1708458.0157000001</v>
@@ -1262,7 +1224,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B30" s="10">
         <v>7757916.3880000003</v>
@@ -1292,7 +1254,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" s="10">
         <v>203852047.95969999</v>
@@ -1321,7 +1283,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B32" s="10">
         <v>250759229.21380001</v>
@@ -1350,7 +1312,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10">
         <v>223753374.2789</v>
@@ -1379,7 +1341,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10">
         <v>294.29500000000002</v>
